--- a/Requirements/Business Rules.xlsx
+++ b/Requirements/Business Rules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>Instructions for buyer must be no more than 1500 characters</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>The text length must be less than 500 characters</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>The maximum time out for a post is 120s</t>
   </si>
 </sst>
 </file>
@@ -461,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +564,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirements/Business Rules.xlsx
+++ b/Requirements/Business Rules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>The maximum time out for a post is 120s</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>A destination thumbnail contains author's name, short description, caption image, number of likes, number of shares, number of comments.</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>The file upload extension name must be ".png, .jpg"</t>
   </si>
 </sst>
 </file>
@@ -473,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -580,6 +592,25 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirements/Business Rules.xlsx
+++ b/Requirements/Business Rules.xlsx
@@ -175,12 +175,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,131 +502,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="55.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="6"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
